--- a/fuction_ensemble_1/redes-ensemble-s/Teste03/content/results/metrics_3_8.xlsx
+++ b/fuction_ensemble_1/redes-ensemble-s/Teste03/content/results/metrics_3_8.xlsx
@@ -518,56 +518,56 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_3_8_24</t>
+          <t>model_3_8_20</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9987501735957157</v>
+        <v>0.3065468920366772</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7111649851190565</v>
+        <v>-0.4157139250735118</v>
       </c>
       <c r="D2" t="n">
-        <v>0.999333721235049</v>
+        <v>0.1141530798604075</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9993110846565014</v>
+        <v>-0.1625737058742858</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9993233590129093</v>
+        <v>0.1447268447414042</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0007419509432726455</v>
+        <v>0.4116637205015283</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1714649418563026</v>
+        <v>0.8404289415808752</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0006339989494924903</v>
+        <v>0.5245041704510188</v>
       </c>
       <c r="J2" t="n">
-        <v>0.000554372209528722</v>
+        <v>0.5874458237530312</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0005941855795106062</v>
+        <v>0.555974997102025</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01878471099141894</v>
+        <v>0.4134335322054343</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02723877646430995</v>
+        <v>0.6416102559198444</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000810698208184</v>
+        <v>-0.1887767565085534</v>
       </c>
       <c r="O2" t="n">
-        <v>0.02839838757043614</v>
+        <v>0.6689249328306808</v>
       </c>
       <c r="P2" t="n">
-        <v>136.4124548623407</v>
+        <v>21.77509695058045</v>
       </c>
       <c r="Q2" t="n">
-        <v>210.7638801793009</v>
+        <v>33.96385519926246</v>
       </c>
     </row>
     <row r="3">
@@ -577,1042 +577,1042 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9987247948505997</v>
+        <v>0.3073526605496237</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7110346763716048</v>
+        <v>-0.4159171540814131</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9993199787313416</v>
+        <v>0.1124109641939255</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9992973624467069</v>
+        <v>-0.1586664355455745</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9993096260043718</v>
+        <v>0.1454520439459346</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0007570168626781476</v>
+        <v>0.4111853815048559</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1715422987578348</v>
+        <v>0.8405495870990014</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0006470756575797062</v>
+        <v>0.5255356657485741</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0005654145122372478</v>
+        <v>0.5854714890288948</v>
       </c>
       <c r="K3" t="n">
-        <v>0.000606245084908477</v>
+        <v>0.5555035773887343</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01897473107276557</v>
+        <v>0.4128245442831996</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02751393942491965</v>
+        <v>0.6412373831155322</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000827160096908</v>
+        <v>-0.1873954390577879</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02868526478794484</v>
+        <v>0.6685361860591359</v>
       </c>
       <c r="P3" t="n">
-        <v>136.3722500582205</v>
+        <v>21.77742223257633</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.7236753751808</v>
+        <v>33.96618048125834</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_3_8_22</t>
+          <t>model_3_8_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9986989061790962</v>
+        <v>0.3066432660703159</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7109027928611868</v>
+        <v>-0.4160109555326961</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9993059695529966</v>
+        <v>0.113956226217233</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9992833352187409</v>
+        <v>-0.1621207115605721</v>
       </c>
       <c r="F4" t="n">
-        <v>0.999295608756546</v>
+        <v>0.1448132536984212</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0007723854964150866</v>
+        <v>0.4116065087120189</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1716205905066899</v>
+        <v>0.8406052716924948</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0006604061204748199</v>
+        <v>0.5246207262062696</v>
       </c>
       <c r="J4" t="n">
-        <v>0.000576702263968156</v>
+        <v>0.5872169267666033</v>
       </c>
       <c r="K4" t="n">
-        <v>0.000618554192221488</v>
+        <v>0.5559188264864365</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01916667625160505</v>
+        <v>0.4133634058394581</v>
       </c>
       <c r="M4" t="n">
-        <v>0.027791824272888</v>
+        <v>0.6415656698359248</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000843952748694</v>
+        <v>-0.1886115438794584</v>
       </c>
       <c r="O4" t="n">
-        <v>0.02897497976919215</v>
+        <v>0.6688784486248627</v>
       </c>
       <c r="P4" t="n">
-        <v>136.3320535697682</v>
+        <v>21.77537492389989</v>
       </c>
       <c r="Q4" t="n">
-        <v>210.6834788867285</v>
+        <v>33.9641331725819</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_3_8_21</t>
+          <t>model_3_8_24</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9986724846856497</v>
+        <v>0.3075117312116923</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7107693823434409</v>
+        <v>-0.416033433492758</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9992916417410709</v>
+        <v>0.1120375200657524</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9992690303906707</v>
+        <v>-0.1578605128846426</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9992812929234046</v>
+        <v>0.1455951986842331</v>
       </c>
       <c r="G5" t="n">
-        <v>0.000788070436273982</v>
+        <v>0.4110909502883572</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1716997887530582</v>
+        <v>0.8406186155805848</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0006740397798187432</v>
+        <v>0.5257567795755843</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0005882134013220445</v>
+        <v>0.5850642581591098</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0006311254992714909</v>
+        <v>0.555410518867347</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01936057902837905</v>
+        <v>0.4126970106862393</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02807259226138516</v>
+        <v>0.6411637468606263</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000861091014714</v>
+        <v>-0.1871227464942418</v>
       </c>
       <c r="O5" t="n">
-        <v>0.02926770063222949</v>
+        <v>0.6684594149564104</v>
       </c>
       <c r="P5" t="n">
-        <v>136.2918461719332</v>
+        <v>21.77788159745533</v>
       </c>
       <c r="Q5" t="n">
-        <v>210.6432714888934</v>
+        <v>33.96663984613733</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_3_8_20</t>
+          <t>model_3_8_22</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9986455329014962</v>
+        <v>0.3067402757750793</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7106342662958094</v>
+        <v>-0.4162110688798741</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9992770895607679</v>
+        <v>0.1137564582130844</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9992544086058351</v>
+        <v>-0.1616597183969204</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9992667078169198</v>
+        <v>0.144901444216023</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0008040701796039848</v>
+        <v>0.4115489195606702</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1717799994756415</v>
+        <v>0.8407240676198261</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0006878869373603804</v>
+        <v>0.5247390075356014</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0005999795947202077</v>
+        <v>0.5869839879796709</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0006439332660402939</v>
+        <v>0.5558614977576362</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01955641675607141</v>
+        <v>0.4132929184449579</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02835613125241144</v>
+        <v>0.6415207865382619</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000878573253084</v>
+        <v>-0.1884452415284354</v>
       </c>
       <c r="O6" t="n">
-        <v>0.02956331046511039</v>
+        <v>0.6688316545522971</v>
       </c>
       <c r="P6" t="n">
-        <v>136.2516480090601</v>
+        <v>21.77565476971984</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.6030733260203</v>
+        <v>33.96441301840184</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_3_8_19</t>
+          <t>model_3_8_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.998618019587445</v>
+        <v>0.3048342827752626</v>
       </c>
       <c r="C7" t="n">
-        <v>0.710497635757667</v>
+        <v>-0.4295322113321423</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9992621676532396</v>
+        <v>0.1172608103446027</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9992395385062907</v>
+        <v>-0.1700754455749141</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9992518098607552</v>
+        <v>0.1432265536011302</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0008204032713380201</v>
+        <v>0.412680399339972</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1718611092652148</v>
+        <v>0.8486320732228836</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0007020859096148914</v>
+        <v>0.5226641035472006</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0006119456076972396</v>
+        <v>0.5912364355961766</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0006570157586560655</v>
+        <v>0.5569502695716886</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01975432181711841</v>
+        <v>0.4145976055328714</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02864268268402979</v>
+        <v>0.6424020542775155</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000896419727063</v>
+        <v>-0.1917126580995498</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02986206098441597</v>
+        <v>0.6697504396836864</v>
       </c>
       <c r="P7" t="n">
-        <v>136.211429088565</v>
+        <v>21.77016367415157</v>
       </c>
       <c r="Q7" t="n">
-        <v>210.5628544055253</v>
+        <v>33.95892192283358</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_3_8_18</t>
+          <t>model_3_8_19</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.998589963272883</v>
+        <v>0.3049631561839649</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7103592766845974</v>
+        <v>-0.4297286282152191</v>
       </c>
       <c r="D8" t="n">
-        <v>0.999246985450243</v>
+        <v>0.1170518331419312</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9992243301764422</v>
+        <v>-0.1695389083610996</v>
       </c>
       <c r="F8" t="n">
-        <v>0.999236615904201</v>
+        <v>0.1433399108391756</v>
       </c>
       <c r="G8" t="n">
-        <v>0.000837058711631698</v>
+        <v>0.4126038945175249</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1719432451877897</v>
+        <v>0.8487486747694455</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0007165325665656442</v>
+        <v>0.5227878375827754</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0006241837955977951</v>
+        <v>0.5909653245741822</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0006703581810817196</v>
+        <v>0.5568765810784788</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0199541286970322</v>
+        <v>0.4145163521193638</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02893196695061879</v>
+        <v>0.6423425056132631</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000914618417589</v>
+        <v>-0.1914917322560601</v>
       </c>
       <c r="O8" t="n">
-        <v>0.03016366068113465</v>
+        <v>0.669688355909514</v>
       </c>
       <c r="P8" t="n">
-        <v>136.1712326892325</v>
+        <v>21.77053447884632</v>
       </c>
       <c r="Q8" t="n">
-        <v>210.5226580061927</v>
+        <v>33.95929272752833</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_3_8_17</t>
+          <t>model_3_8_10</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9985613296314823</v>
+        <v>0.2920966733894125</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7102193500626366</v>
+        <v>-0.4584699329764235</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9992314824148628</v>
+        <v>0.1280686837850287</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9992088315544101</v>
+        <v>-0.21638868000905</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9992211151129484</v>
+        <v>0.1301486699064079</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0008540568780760795</v>
+        <v>0.4202419945074877</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1720263116751009</v>
+        <v>0.8658107548354151</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0007312845122407632</v>
+        <v>0.5162648323364174</v>
       </c>
       <c r="J9" t="n">
-        <v>0.000636655582475114</v>
+        <v>0.6146384065984093</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0006839700473579386</v>
+        <v>0.5654516194674133</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02015598776160791</v>
+        <v>0.4207142821244986</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0292242515400494</v>
+        <v>0.6482607457709342</v>
       </c>
       <c r="N9" t="n">
-        <v>1.00093319159039</v>
+        <v>-0.2135485599038642</v>
       </c>
       <c r="O9" t="n">
-        <v>0.03046838843064982</v>
+        <v>0.6758585478031433</v>
       </c>
       <c r="P9" t="n">
-        <v>136.1310255288618</v>
+        <v>21.73384911246482</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.482450845822</v>
+        <v>33.92260736114682</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_3_8_16</t>
+          <t>model_3_8_11</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9985321097217639</v>
+        <v>0.2928331416683838</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7100776349148801</v>
+        <v>-0.458926623563747</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9992156621432541</v>
+        <v>0.1276704191471222</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9991930004753143</v>
+        <v>-0.2141918882776221</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9992052901160368</v>
+        <v>0.1308210924627965</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0008714030787193301</v>
+        <v>0.4198047951233173</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1721104399085848</v>
+        <v>0.8660818660960565</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0007463383247111904</v>
+        <v>0.5165006422249839</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0006493948985324001</v>
+        <v>0.6135283727814033</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0006978666116217952</v>
+        <v>0.5650145075031936</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02035985316200609</v>
+        <v>0.4203137282994545</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02951953723755388</v>
+        <v>0.6479234485055447</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000952145045342</v>
+        <v>-0.2122860428541991</v>
       </c>
       <c r="O10" t="n">
-        <v>0.03077624505162273</v>
+        <v>0.6755068910948645</v>
       </c>
       <c r="P10" t="n">
-        <v>136.0908118224295</v>
+        <v>21.73593089852265</v>
       </c>
       <c r="Q10" t="n">
-        <v>210.4422371393897</v>
+        <v>33.92468914720465</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_3_8_15</t>
+          <t>model_3_8_12</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9985022997801463</v>
+        <v>0.2931874099465855</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7099342048843272</v>
+        <v>-0.4589541594470525</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9991995131896756</v>
+        <v>0.127469396330161</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9991768798399399</v>
+        <v>-0.2131292819340191</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9991891543687048</v>
+        <v>0.1311425329132795</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0008890995477859265</v>
+        <v>0.4195944861697839</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1721955861705757</v>
+        <v>0.8660982125858749</v>
       </c>
       <c r="I11" t="n">
-        <v>0.000761704895196048</v>
+        <v>0.5166196665207792</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0006623672213814791</v>
+        <v>0.612991440236233</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0007120360582887637</v>
+        <v>0.5648055533785061</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02056586106161398</v>
+        <v>0.4201164222522021</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02981777234781174</v>
+        <v>0.6477611335745483</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000971481223689</v>
+        <v>-0.2116787258058532</v>
       </c>
       <c r="O11" t="n">
-        <v>0.03108717664795606</v>
+        <v>0.6753376660812175</v>
       </c>
       <c r="P11" t="n">
-        <v>136.0506027029147</v>
+        <v>21.7369330864569</v>
       </c>
       <c r="Q11" t="n">
-        <v>210.4020280198749</v>
+        <v>33.92569133513891</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_3_8_14</t>
+          <t>model_3_8_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9984718861312455</v>
+        <v>0.2938810791622165</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7097892056605846</v>
+        <v>-0.459367869077218</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9991830552419899</v>
+        <v>0.1270618228054187</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9991604029818594</v>
+        <v>-0.2110156940226799</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9991726879922088</v>
+        <v>0.1317783782604196</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0009071544035746358</v>
+        <v>0.4191826941584356</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1722816639734297</v>
+        <v>0.8663438084936667</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0007773654896684502</v>
+        <v>0.5168609881403871</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0006756261976930986</v>
+        <v>0.611923449118442</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0007264958436807743</v>
+        <v>0.5643922186294146</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02077383518783272</v>
+        <v>0.4197284424176096</v>
       </c>
       <c r="M12" t="n">
-        <v>0.03011900402693681</v>
+        <v>0.6474431976308312</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000991208995949</v>
+        <v>-0.2104895785790573</v>
       </c>
       <c r="O12" t="n">
-        <v>0.03140123238329702</v>
+        <v>0.6750061949461581</v>
       </c>
       <c r="P12" t="n">
-        <v>136.0103957737277</v>
+        <v>21.73889685969294</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.361821090688</v>
+        <v>33.92765510837495</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_3_8_13</t>
+          <t>model_3_8_9</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9984408642447826</v>
+        <v>0.2847121528212828</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7096424250306743</v>
+        <v>-0.4607246787470616</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9991662459650734</v>
+        <v>0.131039343558117</v>
       </c>
       <c r="E13" t="n">
-        <v>0.99914361515246</v>
+        <v>-0.2367173587990179</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9991558874511646</v>
+        <v>0.1236006699239329</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0009255703354547158</v>
+        <v>0.4246257649114083</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1723687992959375</v>
+        <v>0.8671492693248117</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0007933603922038685</v>
+        <v>0.5145059241045862</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0006891354135425316</v>
+        <v>0.6249104413066111</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0007412490723602256</v>
+        <v>0.5697081827055988</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02098397896659552</v>
+        <v>0.4244553161827005</v>
       </c>
       <c r="M13" t="n">
-        <v>0.03042318746375396</v>
+        <v>0.6516331520966443</v>
       </c>
       <c r="N13" t="n">
-        <v>1.001011331300682</v>
+        <v>-0.226207738020658</v>
       </c>
       <c r="O13" t="n">
-        <v>0.03171836553876599</v>
+        <v>0.6793745244479823</v>
       </c>
       <c r="P13" t="n">
-        <v>135.9702008631771</v>
+        <v>21.71309410224402</v>
       </c>
       <c r="Q13" t="n">
-        <v>210.3216261801373</v>
+        <v>33.90185235092602</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_3_8_12</t>
+          <t>model_3_8_14</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9984092078105614</v>
+        <v>0.2942156338532819</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7094938958413372</v>
+        <v>-0.4616133855487243</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9991490923342178</v>
+        <v>0.1268585237245126</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9991264819335322</v>
+        <v>-0.2099800630498452</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9991387447501742</v>
+        <v>0.1320882978834651</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0009443629622952249</v>
+        <v>0.418984088041809</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1724569726388549</v>
+        <v>0.8676768440724136</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0008096829654487776</v>
+        <v>0.5169813601971837</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0007029225653646381</v>
+        <v>0.6114001471661726</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0007563027654067078</v>
+        <v>0.5641907536816781</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02119614310199705</v>
+        <v>0.4195406130093127</v>
       </c>
       <c r="M14" t="n">
-        <v>0.03073048913205296</v>
+        <v>0.647289802207488</v>
       </c>
       <c r="N14" t="n">
-        <v>1.00103186520396</v>
+        <v>-0.2099160562515168</v>
       </c>
       <c r="O14" t="n">
-        <v>0.03203874967528663</v>
+        <v>0.6748462691620709</v>
       </c>
       <c r="P14" t="n">
-        <v>135.9299999435217</v>
+        <v>21.73984467162995</v>
       </c>
       <c r="Q14" t="n">
-        <v>210.2814252604819</v>
+        <v>33.92860292031196</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_3_8_11</t>
+          <t>model_3_8_15</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9983769001006314</v>
+        <v>0.294868853550738</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7093435994911212</v>
+        <v>-0.4616739218017345</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9991315881219024</v>
+        <v>0.1264421971659726</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9991090053824682</v>
+        <v>-0.2079519266927998</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9991212534625054</v>
+        <v>0.1326869455681697</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0009635422145300666</v>
+        <v>0.4185963086117773</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1725461950448073</v>
+        <v>0.8677127810072304</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0008263391352135781</v>
+        <v>0.5172278644308828</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0007169859975696218</v>
+        <v>0.6103753345225287</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0007716625663916001</v>
+        <v>0.5638015994767058</v>
       </c>
       <c r="L15" t="n">
-        <v>0.02141054432086421</v>
+        <v>0.4191630875310218</v>
       </c>
       <c r="M15" t="n">
-        <v>0.03104097637849149</v>
+        <v>0.6469901920522269</v>
       </c>
       <c r="N15" t="n">
-        <v>1.001052821556347</v>
+        <v>-0.2087962510558776</v>
       </c>
       <c r="O15" t="n">
-        <v>0.03236245500660326</v>
+        <v>0.6745339039822217</v>
       </c>
       <c r="P15" t="n">
-        <v>135.8897885146768</v>
+        <v>21.74169657484682</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.241213831637</v>
+        <v>33.93045482352883</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_3_8_10</t>
+          <t>model_3_8_16</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.998343947397127</v>
+        <v>0.297787313600597</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7091914197053099</v>
+        <v>-0.4617136041927523</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9991137456070046</v>
+        <v>0.1242932889485403</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9990911655944036</v>
+        <v>-0.1985021457776242</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9991034124524976</v>
+        <v>0.1353810218607585</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0009831043628129785</v>
+        <v>0.4168637846552714</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1726365355394894</v>
+        <v>0.8677363381887286</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0008433172175066652</v>
+        <v>0.5185002189385691</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0007313417276607116</v>
+        <v>0.6056003819273068</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0007873294725836885</v>
+        <v>0.562050300432938</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02162704348791181</v>
+        <v>0.4173795212692476</v>
       </c>
       <c r="M16" t="n">
-        <v>0.03135449509740156</v>
+        <v>0.6456498932511887</v>
       </c>
       <c r="N16" t="n">
-        <v>1.001074196282945</v>
+        <v>-0.2037931766846908</v>
       </c>
       <c r="O16" t="n">
-        <v>0.03268932086645054</v>
+        <v>0.6731365458864224</v>
       </c>
       <c r="P16" t="n">
-        <v>135.8495905515785</v>
+        <v>21.74999153209962</v>
       </c>
       <c r="Q16" t="n">
-        <v>210.2010158685387</v>
+        <v>33.93874978078163</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_3_8_9</t>
+          <t>model_3_8_17</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9983103151867585</v>
+        <v>0.2980486688507133</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7090374478413418</v>
+        <v>-0.4618249323569787</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9990955014378802</v>
+        <v>0.1240766387537648</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9990729837406339</v>
+        <v>-0.1976152027126843</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9990851970966396</v>
+        <v>0.1356270724996546</v>
       </c>
       <c r="G17" t="n">
-        <v>0.001003069895723541</v>
+        <v>0.4167086328888432</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1727279398891791</v>
+        <v>0.8678024273961397</v>
       </c>
       <c r="I17" t="n">
-        <v>0.000860677494717554</v>
+        <v>0.5186284961026087</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0007459727190339557</v>
+        <v>0.6051522116334382</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0008033251068757549</v>
+        <v>0.5618903538680236</v>
       </c>
       <c r="L17" t="n">
-        <v>0.02184587237523754</v>
+        <v>0.4172134499103265</v>
       </c>
       <c r="M17" t="n">
-        <v>0.03167127871942561</v>
+        <v>0.6455297304453477</v>
       </c>
       <c r="N17" t="n">
-        <v>1.001096011770751</v>
+        <v>-0.2033451391130627</v>
       </c>
       <c r="O17" t="n">
-        <v>0.03301959062309666</v>
+        <v>0.6730112675011655</v>
       </c>
       <c r="P17" t="n">
-        <v>135.8093801715336</v>
+        <v>21.75073604698498</v>
       </c>
       <c r="Q17" t="n">
-        <v>210.1608054884938</v>
+        <v>33.93949429566698</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_3_8_8</t>
+          <t>model_3_8_5</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9982759957897934</v>
+        <v>0.2704228554437867</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7088815622426481</v>
+        <v>-0.4641685756894518</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9990769234016155</v>
+        <v>0.1330818462077756</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9990544025873248</v>
+        <v>-0.271526324993868</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9990666178982143</v>
+        <v>0.1110021003815411</v>
       </c>
       <c r="G18" t="n">
-        <v>0.001023443372282769</v>
+        <v>0.4331085091001962</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1728204803144709</v>
+        <v>0.8691937153184162</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0008783554639026038</v>
+        <v>0.5132965716379835</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0007609250279246927</v>
+        <v>0.6424993319868346</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0008196402459136482</v>
+        <v>0.577897951812409</v>
       </c>
       <c r="L18" t="n">
-        <v>0.02206684571311808</v>
+        <v>0.4303542674274325</v>
       </c>
       <c r="M18" t="n">
-        <v>0.03199130150967242</v>
+        <v>0.658109800185498</v>
       </c>
       <c r="N18" t="n">
-        <v>1.001118273001215</v>
+        <v>-0.2507036763820798</v>
       </c>
       <c r="O18" t="n">
-        <v>0.03335323744606278</v>
+        <v>0.6861268968544884</v>
       </c>
       <c r="P18" t="n">
-        <v>135.7691649638281</v>
+        <v>21.67353396798071</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.1205902807883</v>
+        <v>33.86229221666271</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_3_8_7</t>
+          <t>model_3_8_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9982409917130923</v>
+        <v>0.2712170946924918</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7087238159141465</v>
+        <v>-0.4643358848916674</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9990579414410987</v>
+        <v>0.1330571321017422</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9990354803426981</v>
+        <v>-0.2697131292629555</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9990476621670228</v>
+        <v>0.1116955570272199</v>
       </c>
       <c r="G19" t="n">
-        <v>0.001044223304309926</v>
+        <v>0.4326370143728158</v>
       </c>
       <c r="H19" t="n">
-        <v>0.172914125349356</v>
+        <v>0.8692930372882326</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0008964177880527548</v>
+        <v>0.5133112046986047</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0007761518140051514</v>
+        <v>0.641583128347969</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0008362860334700649</v>
+        <v>0.5774471665232869</v>
       </c>
       <c r="L19" t="n">
-        <v>0.02229001751564981</v>
+        <v>0.4300557446295429</v>
       </c>
       <c r="M19" t="n">
-        <v>0.03231444420549309</v>
+        <v>0.6577514837480914</v>
       </c>
       <c r="N19" t="n">
-        <v>1.001140978348265</v>
+        <v>-0.2493421233842998</v>
       </c>
       <c r="O19" t="n">
-        <v>0.03369013699544213</v>
+        <v>0.6857533261445241</v>
       </c>
       <c r="P19" t="n">
-        <v>135.7289638387527</v>
+        <v>21.67571241308362</v>
       </c>
       <c r="Q19" t="n">
-        <v>210.080389155713</v>
+        <v>33.86447066176563</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_3_8_6</t>
+          <t>model_3_8_8</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9982052770899595</v>
+        <v>0.2770267220498601</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7085641179167357</v>
+        <v>-0.4653016476312628</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9990385871589403</v>
+        <v>0.1325942314548321</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9990161572635122</v>
+        <v>-0.2560470295433448</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9990283238622373</v>
+        <v>0.116796174292681</v>
       </c>
       <c r="G20" t="n">
-        <v>0.001065425047392896</v>
+        <v>0.4291881686106475</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1730089289792134</v>
+        <v>0.8698663557692345</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0009148343956381558</v>
+        <v>0.5135852851455633</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0007917011528379412</v>
+        <v>0.6346776795435507</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0008532677742380485</v>
+        <v>0.574131482344557</v>
       </c>
       <c r="L20" t="n">
-        <v>0.02251534646209044</v>
+        <v>0.4277823115090151</v>
       </c>
       <c r="M20" t="n">
-        <v>0.03264084936690368</v>
+        <v>0.6551245443506505</v>
       </c>
       <c r="N20" t="n">
-        <v>1.001164144590297</v>
+        <v>-0.2393827622002398</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0340304379003258</v>
+        <v>0.6830145524984199</v>
       </c>
       <c r="P20" t="n">
-        <v>135.6887629078179</v>
+        <v>21.69171966950071</v>
       </c>
       <c r="Q20" t="n">
-        <v>210.0401882247781</v>
+        <v>33.88047791818272</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_3_8_5</t>
+          <t>model_3_8_7</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9981688359344305</v>
+        <v>0.2749549086390283</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7084024942900145</v>
+        <v>-0.4656484699869643</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9990188674847557</v>
+        <v>0.1328200823268202</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9989964376624334</v>
+        <v>-0.261000024842293</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9990086045039217</v>
+        <v>0.114974012633598</v>
       </c>
       <c r="G21" t="n">
-        <v>0.001087058091490891</v>
+        <v>0.4304180865489965</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1731048757458123</v>
+        <v>0.8700722445015246</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0009335986927689019</v>
+        <v>0.5134515603206928</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0008075695740078722</v>
+        <v>0.6371804166936632</v>
       </c>
       <c r="K21" t="n">
-        <v>0.000870584133388387</v>
+        <v>0.575315988507178</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02274302326739503</v>
+        <v>0.428613908243946</v>
       </c>
       <c r="M21" t="n">
-        <v>0.03297056401535908</v>
+        <v>0.6560625629838945</v>
       </c>
       <c r="N21" t="n">
-        <v>1.001187782096586</v>
+        <v>-0.2429344423330944</v>
       </c>
       <c r="O21" t="n">
-        <v>0.03437418918396937</v>
+        <v>0.6839925045268473</v>
       </c>
       <c r="P21" t="n">
-        <v>135.6485604604742</v>
+        <v>21.68599649673295</v>
       </c>
       <c r="Q21" t="n">
-        <v>209.9999857774345</v>
+        <v>33.87475474541495</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9981316516899001</v>
+        <v>0.2605718157765687</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7082389024080835</v>
+        <v>-0.4666656936547195</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9989987003812096</v>
+        <v>0.1327493791082776</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9989763326959827</v>
+        <v>-0.2931970227548233</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9989884661595013</v>
+        <v>0.1024282125834091</v>
       </c>
       <c r="G22" t="n">
-        <v>0.001109132265319858</v>
+        <v>0.4389565117894127</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1732019909537277</v>
+        <v>0.8706761124124786</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0009527887422422414</v>
+        <v>0.5134934232341904</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0008237480998295589</v>
+        <v>0.653449485799159</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0008882684210359002</v>
+        <v>0.5834714545166746</v>
       </c>
       <c r="L22" t="n">
-        <v>0.02297307517524249</v>
+        <v>0.4338342982624344</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0333036374187544</v>
+        <v>0.662537932340038</v>
       </c>
       <c r="N22" t="n">
-        <v>1.001211901606551</v>
+        <v>-0.2675911729544536</v>
       </c>
       <c r="O22" t="n">
-        <v>0.03472144221170421</v>
+        <v>0.6907435437623443</v>
       </c>
       <c r="P22" t="n">
-        <v>135.6083546246667</v>
+        <v>21.64670986559409</v>
       </c>
       <c r="Q22" t="n">
-        <v>209.9597799416269</v>
+        <v>33.83546811427609</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9980937081286638</v>
+        <v>0.2564283146124757</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7080732989505559</v>
+        <v>-0.468388821797576</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9989781188926293</v>
+        <v>0.1323084377711071</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9989558280264461</v>
+        <v>-0.3019025601793623</v>
       </c>
       <c r="F23" t="n">
-        <v>0.998967920163043</v>
+        <v>0.09884392883243576</v>
       </c>
       <c r="G23" t="n">
-        <v>0.001131657202346219</v>
+        <v>0.4414162730703488</v>
       </c>
       <c r="H23" t="n">
-        <v>0.173300300319813</v>
+        <v>0.8716990357133381</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0009723731006600065</v>
+        <v>0.5137545017174048</v>
       </c>
       <c r="J23" t="n">
-        <v>0.000840248267903895</v>
+        <v>0.657848373867701</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0009063106842819508</v>
+        <v>0.5858014377925529</v>
       </c>
       <c r="L23" t="n">
-        <v>0.02320537723309566</v>
+        <v>0.4351979609193941</v>
       </c>
       <c r="M23" t="n">
-        <v>0.03364011299544369</v>
+        <v>0.6643916563822493</v>
       </c>
       <c r="N23" t="n">
-        <v>1.001236513646272</v>
+        <v>-0.2746943178071843</v>
       </c>
       <c r="O23" t="n">
-        <v>0.03507224225029363</v>
+        <v>0.6926761846747702</v>
       </c>
       <c r="P23" t="n">
-        <v>135.5681443396886</v>
+        <v>21.6355338377844</v>
       </c>
       <c r="Q23" t="n">
-        <v>209.9195696566489</v>
+        <v>33.82429208646641</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9980549929378362</v>
+        <v>0.2553407207661891</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7079056348144279</v>
+        <v>-0.4686596095874078</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9989571522397985</v>
+        <v>0.1321673430749373</v>
       </c>
       <c r="E24" t="n">
-        <v>0.998934879999679</v>
+        <v>-0.3041491548932984</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9989469608777702</v>
+        <v>0.09790651622381197</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0011546402120307</v>
+        <v>0.4420619157591124</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1733998329937322</v>
+        <v>0.8718597870428058</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0009923239629242367</v>
+        <v>0.5138380429646419</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0008571052068496322</v>
+        <v>0.658983573017397</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0009247158730061752</v>
+        <v>0.5864108079910194</v>
       </c>
       <c r="L24" t="n">
-        <v>0.02344007457027427</v>
+        <v>0.4355482490802982</v>
       </c>
       <c r="M24" t="n">
-        <v>0.03397999723411849</v>
+        <v>0.6648773689629632</v>
       </c>
       <c r="N24" t="n">
-        <v>1.001261626202485</v>
+        <v>-0.2765587644008187</v>
       </c>
       <c r="O24" t="n">
-        <v>0.03542659606466619</v>
+        <v>0.693182575045609</v>
       </c>
       <c r="P24" t="n">
-        <v>135.5279329765428</v>
+        <v>21.63261065162377</v>
       </c>
       <c r="Q24" t="n">
-        <v>209.879358293503</v>
+        <v>33.82136890030577</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9980154972242936</v>
+        <v>0.2530974571667542</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7077359421143647</v>
+        <v>-0.4699862895523896</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9989357596436805</v>
+        <v>0.1318449396032429</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9989135181691763</v>
+        <v>-0.3087634885373816</v>
       </c>
       <c r="F25" t="n">
-        <v>0.998925582671262</v>
+        <v>0.09596629321281536</v>
       </c>
       <c r="G25" t="n">
-        <v>0.001178086573715508</v>
+        <v>0.4433936139356787</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1735005699108326</v>
+        <v>0.8726473615796093</v>
       </c>
       <c r="I25" t="n">
-        <v>0.001012680132412404</v>
+        <v>0.5140289359526142</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0008742951348823024</v>
+        <v>0.6613151852110353</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0009434889332631754</v>
+        <v>0.5876720605818248</v>
       </c>
       <c r="L25" t="n">
-        <v>0.02367710442033912</v>
+        <v>0.4362557436444987</v>
       </c>
       <c r="M25" t="n">
-        <v>0.03432326577870334</v>
+        <v>0.6658780773802955</v>
       </c>
       <c r="N25" t="n">
-        <v>1.001287245043701</v>
+        <v>-0.280404359142707</v>
       </c>
       <c r="O25" t="n">
-        <v>0.03578447826185786</v>
+        <v>0.6942258856920189</v>
       </c>
       <c r="P25" t="n">
-        <v>135.4877274086695</v>
+        <v>21.62659476878844</v>
       </c>
       <c r="Q25" t="n">
-        <v>209.8391527256297</v>
+        <v>33.81535301747044</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9979752045746108</v>
+        <v>0.2519458148446859</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7075642423120312</v>
+        <v>-0.4725918126855393</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9989138969856594</v>
+        <v>0.131663799713106</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9988917164487107</v>
+        <v>-0.3111068798924783</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9989037497269975</v>
+        <v>0.09497302258833229</v>
       </c>
       <c r="G26" t="n">
-        <v>0.001202006031119147</v>
+        <v>0.4440772785664164</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1736024983305431</v>
+        <v>0.8741941126641858</v>
       </c>
       <c r="I26" t="n">
-        <v>0.001033483590285747</v>
+        <v>0.5141361876974155</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0008918390436660711</v>
+        <v>0.6624992954812184</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0009626613169759091</v>
+        <v>0.588317741589317</v>
       </c>
       <c r="L26" t="n">
-        <v>0.02391651361391324</v>
+        <v>0.436614602112401</v>
       </c>
       <c r="M26" t="n">
-        <v>0.03466995862586437</v>
+        <v>0.6663912353613427</v>
       </c>
       <c r="N26" t="n">
-        <v>1.001313380816469</v>
+        <v>-0.2823786031233955</v>
       </c>
       <c r="O26" t="n">
-        <v>0.03614593054127567</v>
+        <v>0.6947608898707028</v>
       </c>
       <c r="P26" t="n">
-        <v>135.4475268506234</v>
+        <v>21.62351336173948</v>
       </c>
       <c r="Q26" t="n">
-        <v>209.7989521675836</v>
+        <v>33.81227161042148</v>
       </c>
     </row>
   </sheetData>
